--- a/src/public/assets/mau_sua_chua.xlsx
+++ b/src/public/assets/mau_sua_chua.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,15 +402,15 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/public/assets/mau_sua_chua.xlsx
+++ b/src/public/assets/mau_sua_chua.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/public/assets/mau_sua_chua.xlsx
+++ b/src/public/assets/mau_sua_chua.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Mã phiếu</t>
-  </si>
-  <si>
     <t>Serial Mới</t>
   </si>
   <si>
-    <t>Biện pháp</t>
+    <t>Chi tiết SC</t>
   </si>
   <si>
-    <t>Chi tiết SC</t>
+    <t>Mã phiếu *</t>
+  </si>
+  <si>
+    <t>Biện pháp *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,16 +415,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/public/assets/mau_sua_chua.xlsx
+++ b/src/public/assets/mau_sua_chua.xlsx
@@ -25,7 +25,7 @@
     <t>Mã phiếu *</t>
   </si>
   <si>
-    <t>Biện pháp *</t>
+    <t>Biện pháp</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
